--- a/build/website/StructureDefinition-ms-rhstatus-observation.xlsx
+++ b/build/website/StructureDefinition-ms-rhstatus-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:36:20-05:00</t>
+    <t>2022-05-26T13:36:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -896,7 +896,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://loinc.org/vs/LL2419-1</t>
+    <t>http://loinc.org/vs/LL360-9</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
